--- a/Other/Defect report.xlsx
+++ b/Other/Defect report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="test scenario" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DR '!$A$1:$M$26</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'DR 2'!$A$1:$M$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'DR 2'!$A$1:$M$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'DR 3 '!$A$1:$M$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'DR 4'!$A$1:$M$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'test scenario'!$A$1:$I$27</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="237">
   <si>
     <t>testcase id</t>
   </si>
@@ -838,6 +838,127 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1ld-XKTkWrEzq-ezW8JRW5yEiOQK_UP0C/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1D63vzAUSqIAqv68Sg1uVn4k2c4c1y43o/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>user name: 
+pass word : secret_sauce@#$</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1glco8HgBLSvDGTdwJM-qAeufk7c-bbvr/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1OOLKpUmTTzt5JOLq69KI8_AAmnDG9_NF/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/11GBGR7QojridqaetfLfKjJpLX0dJ5evN/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1yKT5FQIkzRc6M-eB_khLHlpTLZeB2sjV/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1oGNoLASZjU3kMj08d1Xx-hmbXC-n1DZ7/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TBw-x27qH1qAueZzrugst_A3BIfTiojZ/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Yqy9RJRxbbWkJ9d8b87SRDmoh1y3Nx4-/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lQFe6psW3oj4Uyv6eQTdA4x3m7sVdggG/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18qttlFBxvJDOAGi5R4pVgGDQz65XAXZn/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1naG78gkbd1oAx6_LaLGe98Vur1pdCVi2/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/12p4CvfSw4jJbpNK1ZC31_FjOFVW37aUz/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1l6dn2dWSRjDbsniCoYuNqXz7KxFT5CAG/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ovyUMoFUpglMJblvo8b0Kfedo0VrdJIi/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/11PaljJQTyoYXoXIzYzsMyeOwavpVLyd5/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Y6J1LOT4c6h5milMKPWkJClkiHgsRT15/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1aBnDuSh3ok5vhAcHiJ7CuBjFH8NnRQ16/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10NZk4SHyLBQfbM-6TRf1cknX6UMzQw6p/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ACsp75xFy1livkt9Xr_xRNDQv_JRRuAc/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1du8h1Ugr60SyAvqcqEtQMkzAiRCKaQCs/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Pc-CkRbrC0g7IoKaTas8skPfyDd6GZFn/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10N_wAO6eadhNHfVFa4gN_YHV-9c7aeup/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YnRdgUTQ_lsYtVizwRkONYdA3OG3V78m/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1D52GzjswsqO0X3UEmSbUsddRPoLWEgP8/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ywwCP7eTI5v132WZBnvB0UQGmKWRIvQE/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ynx7t_aC6Yga9qi83NArgLsBYGq7hzcT/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1hTnnMQIz1p-T9hC35M0qDTzJtmp7bKrO/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1COyT7nxhQNRpL5_cvHxEeMrMe8hgTgCd/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1kKhvfhKhJUK4XF1idGmOa5F58nArvOle/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Gp-oRBRbIBKcjtqy_0mkVOFWBMwIjR34/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gb4IubEbaTfUk_Z68-qdffCyQPxb-Jeq/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1w4OOwDBUlu7IzIeGzszrm57StRDzFpff/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1nSPTPMIukael-S8wEia4tDhuYyHH_AsV/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1hxWKPahDlx1VCfaKQ6jqOBmUwxWM9rnk/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1QeMiP7nE-GkSlO6LuiX7GtzPqRPcVhPd/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1wAqmxlN2bGm-vEhAUgCkSHZ50v1fAR0r/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iboChBy4Ve-Vu1wjeAnJ-fdw-ijnQSNc/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1E0nF_1J4bMBDQGmZDmwCWDQhtK1aBSkE/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -1286,7 +1407,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2349,8 +2470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2535,7 +2656,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="15" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="15" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -2554,8 +2675,12 @@
       <c r="F5" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="I5" s="6" t="s">
         <v>20</v>
       </c>
@@ -2565,12 +2690,14 @@
       <c r="K5" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="L5" s="26"/>
+      <c r="L5" s="26" t="s">
+        <v>197</v>
+      </c>
       <c r="M5" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -2586,9 +2713,15 @@
       <c r="E6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="I6" s="6" t="s">
         <v>20</v>
       </c>
@@ -2598,12 +2731,14 @@
       <c r="K6" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="L6" s="6"/>
+      <c r="L6" s="26" t="s">
+        <v>199</v>
+      </c>
       <c r="M6" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -2619,9 +2754,15 @@
       <c r="E7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="I7" s="6" t="s">
         <v>20</v>
       </c>
@@ -2631,12 +2772,14 @@
       <c r="K7" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="L7" s="6"/>
+      <c r="L7" s="26" t="s">
+        <v>200</v>
+      </c>
       <c r="M7" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -2652,9 +2795,15 @@
       <c r="E8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="I8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2664,12 +2813,14 @@
       <c r="K8" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="L8" s="6"/>
+      <c r="L8" s="26" t="s">
+        <v>201</v>
+      </c>
       <c r="M8" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -2685,9 +2836,15 @@
       <c r="E9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="I9" s="6" t="s">
         <v>20</v>
       </c>
@@ -2697,12 +2854,14 @@
       <c r="K9" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="L9" s="6"/>
+      <c r="L9" s="26" t="s">
+        <v>202</v>
+      </c>
       <c r="M9" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -2716,11 +2875,17 @@
         <v>13</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+        <v>198</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="I10" s="6" t="s">
         <v>20</v>
       </c>
@@ -2730,12 +2895,14 @@
       <c r="K10" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="L10" s="6"/>
+      <c r="L10" s="26" t="s">
+        <v>203</v>
+      </c>
       <c r="M10" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -2751,9 +2918,15 @@
       <c r="E11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="I11" s="6" t="s">
         <v>20</v>
       </c>
@@ -2763,12 +2936,14 @@
       <c r="K11" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="L11" s="6"/>
+      <c r="L11" s="26" t="s">
+        <v>204</v>
+      </c>
       <c r="M11" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -2784,9 +2959,15 @@
       <c r="E12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="I12" s="6" t="s">
         <v>20</v>
       </c>
@@ -2796,12 +2977,14 @@
       <c r="K12" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="L12" s="6"/>
+      <c r="L12" s="26" t="s">
+        <v>205</v>
+      </c>
       <c r="M12" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -2817,9 +3000,15 @@
       <c r="E13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="I13" s="6" t="s">
         <v>20</v>
       </c>
@@ -2829,12 +3018,14 @@
       <c r="K13" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="L13" s="6"/>
+      <c r="L13" s="26" t="s">
+        <v>206</v>
+      </c>
       <c r="M13" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -2850,9 +3041,15 @@
       <c r="E14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="I14" s="6" t="s">
         <v>20</v>
       </c>
@@ -2862,12 +3059,14 @@
       <c r="K14" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="L14" s="6"/>
+      <c r="L14" s="26" t="s">
+        <v>207</v>
+      </c>
       <c r="M14" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="15" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="15" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -2883,9 +3082,15 @@
       <c r="E15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="I15" s="6" t="s">
         <v>49</v>
       </c>
@@ -2895,12 +3100,14 @@
       <c r="K15" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="L15" s="6"/>
+      <c r="L15" s="26" t="s">
+        <v>208</v>
+      </c>
       <c r="M15" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="15" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="15" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -2916,9 +3123,15 @@
       <c r="E16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="I16" s="6" t="s">
         <v>53</v>
       </c>
@@ -2928,12 +3141,14 @@
       <c r="K16" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="L16" s="6"/>
+      <c r="L16" s="26" t="s">
+        <v>209</v>
+      </c>
       <c r="M16" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="15" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="15" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -2949,9 +3164,15 @@
       <c r="E17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="I17" s="6" t="s">
         <v>57</v>
       </c>
@@ -2961,12 +3182,14 @@
       <c r="K17" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="L17" s="6"/>
+      <c r="L17" s="26" t="s">
+        <v>211</v>
+      </c>
       <c r="M17" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="15" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="15" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -2982,9 +3205,15 @@
       <c r="E18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="F18" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="I18" s="6" t="s">
         <v>64</v>
       </c>
@@ -2994,12 +3223,14 @@
       <c r="K18" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="L18" s="6"/>
+      <c r="L18" s="26" t="s">
+        <v>210</v>
+      </c>
       <c r="M18" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="15" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="15" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -3015,9 +3246,15 @@
       <c r="E19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="F19" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="I19" s="6" t="s">
         <v>75</v>
       </c>
@@ -3027,7 +3264,9 @@
       <c r="K19" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="L19" s="6"/>
+      <c r="L19" s="26" t="s">
+        <v>213</v>
+      </c>
       <c r="M19" s="6" t="s">
         <v>18</v>
       </c>
@@ -3048,9 +3287,15 @@
       <c r="E20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="F20" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="I20" s="6" t="s">
         <v>87</v>
       </c>
@@ -3060,7 +3305,9 @@
       <c r="K20" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="L20" s="6"/>
+      <c r="L20" s="26" t="s">
+        <v>214</v>
+      </c>
       <c r="M20" s="6" t="s">
         <v>18</v>
       </c>
@@ -3081,9 +3328,15 @@
       <c r="E21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="F21" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="I21" s="6" t="s">
         <v>87</v>
       </c>
@@ -3093,7 +3346,9 @@
       <c r="K21" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="L21" s="6"/>
+      <c r="L21" s="26" t="s">
+        <v>214</v>
+      </c>
       <c r="M21" s="6" t="s">
         <v>18</v>
       </c>
@@ -3114,9 +3369,15 @@
       <c r="E22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="F22" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="I22" s="6" t="s">
         <v>101</v>
       </c>
@@ -3126,7 +3387,9 @@
       <c r="K22" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="L22" s="6"/>
+      <c r="L22" s="26" t="s">
+        <v>215</v>
+      </c>
       <c r="M22" s="6" t="s">
         <v>18</v>
       </c>
@@ -3147,9 +3410,15 @@
       <c r="E23" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="F23" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>192</v>
+      </c>
       <c r="I23" s="6" t="s">
         <v>116</v>
       </c>
@@ -3159,7 +3428,9 @@
       <c r="K23" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="L23" s="6"/>
+      <c r="L23" s="26" t="s">
+        <v>216</v>
+      </c>
       <c r="M23" s="6" t="s">
         <v>18</v>
       </c>
@@ -3180,9 +3451,15 @@
       <c r="E24" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="F24" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>192</v>
+      </c>
       <c r="I24" s="6" t="s">
         <v>116</v>
       </c>
@@ -3192,7 +3469,9 @@
       <c r="K24" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="L24" s="6"/>
+      <c r="L24" s="26" t="s">
+        <v>217</v>
+      </c>
       <c r="M24" s="6" t="s">
         <v>18</v>
       </c>
@@ -3213,9 +3492,15 @@
       <c r="E25" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="F25" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>192</v>
+      </c>
       <c r="I25" s="6" t="s">
         <v>116</v>
       </c>
@@ -3225,7 +3510,9 @@
       <c r="K25" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="L25" s="6"/>
+      <c r="L25" s="26" t="s">
+        <v>218</v>
+      </c>
       <c r="M25" s="6" t="s">
         <v>18</v>
       </c>
@@ -3246,9 +3533,15 @@
       <c r="E26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="F26" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>190</v>
+      </c>
       <c r="I26" s="6" t="s">
         <v>126</v>
       </c>
@@ -3258,7 +3551,9 @@
       <c r="K26" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="L26" s="6"/>
+      <c r="L26" s="26" t="s">
+        <v>219</v>
+      </c>
       <c r="M26" s="6" t="s">
         <v>18</v>
       </c>
@@ -3898,9 +4193,28 @@
     <hyperlink ref="L2" r:id="rId1"/>
     <hyperlink ref="L3" r:id="rId2"/>
     <hyperlink ref="L4" r:id="rId3"/>
+    <hyperlink ref="L5" r:id="rId4"/>
+    <hyperlink ref="L6" r:id="rId5"/>
+    <hyperlink ref="L7" r:id="rId6"/>
+    <hyperlink ref="L8" r:id="rId7"/>
+    <hyperlink ref="L9" r:id="rId8"/>
+    <hyperlink ref="L10" r:id="rId9"/>
+    <hyperlink ref="L11" r:id="rId10"/>
+    <hyperlink ref="L12" r:id="rId11"/>
+    <hyperlink ref="L13" r:id="rId12"/>
+    <hyperlink ref="L14" r:id="rId13"/>
+    <hyperlink ref="L15" r:id="rId14"/>
+    <hyperlink ref="L16" r:id="rId15"/>
+    <hyperlink ref="L18" r:id="rId16"/>
+    <hyperlink ref="L17" r:id="rId17"/>
+    <hyperlink ref="L19" r:id="rId18"/>
+    <hyperlink ref="L23" r:id="rId19"/>
+    <hyperlink ref="L24" r:id="rId20"/>
+    <hyperlink ref="L25" r:id="rId21"/>
+    <hyperlink ref="L26" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
 
@@ -4950,10 +5264,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:M108"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="D11" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5015,7 +5329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -5031,9 +5345,15 @@
       <c r="E2" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>190</v>
+      </c>
       <c r="I2" s="6" t="s">
         <v>16</v>
       </c>
@@ -5043,12 +5363,14 @@
       <c r="K2" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="L2" s="6"/>
+      <c r="L2" s="26" t="s">
+        <v>220</v>
+      </c>
       <c r="M2" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -5064,9 +5386,15 @@
       <c r="E3" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="I3" s="6" t="s">
         <v>20</v>
       </c>
@@ -5076,12 +5404,14 @@
       <c r="K3" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="L3" s="6"/>
+      <c r="L3" s="26" t="s">
+        <v>221</v>
+      </c>
       <c r="M3" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -5097,9 +5427,15 @@
       <c r="E4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="I4" s="6" t="s">
         <v>20</v>
       </c>
@@ -5109,12 +5445,14 @@
       <c r="K4" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="L4" s="6"/>
+      <c r="L4" s="26" t="s">
+        <v>222</v>
+      </c>
       <c r="M4" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -5130,9 +5468,15 @@
       <c r="E5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="I5" s="6" t="s">
         <v>20</v>
       </c>
@@ -5142,12 +5486,14 @@
       <c r="K5" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="L5" s="6"/>
+      <c r="L5" s="26" t="s">
+        <v>223</v>
+      </c>
       <c r="M5" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -5163,9 +5509,15 @@
       <c r="E6" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="I6" s="6" t="s">
         <v>20</v>
       </c>
@@ -5175,12 +5527,14 @@
       <c r="K6" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="L6" s="6"/>
+      <c r="L6" s="26" t="s">
+        <v>224</v>
+      </c>
       <c r="M6" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -5196,9 +5550,15 @@
       <c r="E7" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="I7" s="6" t="s">
         <v>20</v>
       </c>
@@ -5208,12 +5568,14 @@
       <c r="K7" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="L7" s="6"/>
+      <c r="L7" s="26" t="s">
+        <v>225</v>
+      </c>
       <c r="M7" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -5229,9 +5591,15 @@
       <c r="E8" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="I8" s="6" t="s">
         <v>20</v>
       </c>
@@ -5241,12 +5609,14 @@
       <c r="K8" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="L8" s="6"/>
+      <c r="L8" s="26" t="s">
+        <v>226</v>
+      </c>
       <c r="M8" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -5262,9 +5632,15 @@
       <c r="E9" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="I9" s="6" t="s">
         <v>20</v>
       </c>
@@ -5274,30 +5650,38 @@
       <c r="K9" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="L9" s="6"/>
+      <c r="L9" s="26" t="s">
+        <v>227</v>
+      </c>
       <c r="M9" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+        <v>152</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="I10" s="6" t="s">
         <v>20</v>
       </c>
@@ -5307,30 +5691,38 @@
       <c r="K10" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="L10" s="6"/>
+      <c r="L10" s="26" t="s">
+        <v>228</v>
+      </c>
       <c r="M10" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+        <v>153</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="I11" s="6" t="s">
         <v>20</v>
       </c>
@@ -5340,30 +5732,38 @@
       <c r="K11" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="L11" s="6"/>
+      <c r="L11" s="26" t="s">
+        <v>229</v>
+      </c>
       <c r="M11" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+        <v>154</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="I12" s="6" t="s">
         <v>20</v>
       </c>
@@ -5373,30 +5773,38 @@
       <c r="K12" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="L12" s="6"/>
+      <c r="L12" s="26" t="s">
+        <v>230</v>
+      </c>
       <c r="M12" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+        <v>155</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="I13" s="6" t="s">
         <v>20</v>
       </c>
@@ -5406,43 +5814,26 @@
       <c r="K13" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="L13" s="6"/>
+      <c r="L13" s="26" t="s">
+        <v>231</v>
+      </c>
       <c r="M13" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="63" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6">
-        <v>14</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6" t="s">
-        <v>18</v>
-      </c>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="17"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="17"/>
@@ -5557,35 +5948,35 @@
       <c r="M22" s="20"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="17"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="19"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="19"/>
       <c r="D25" s="22"/>
       <c r="E25" s="19"/>
@@ -5613,21 +6004,21 @@
       <c r="M26" s="19"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="17"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="19"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="20"/>
       <c r="D28" s="21"/>
       <c r="E28" s="20"/>
@@ -5655,7 +6046,7 @@
       <c r="M29" s="20"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="17"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="20"/>
       <c r="D30" s="21"/>
       <c r="E30" s="20"/>
@@ -5669,7 +6060,7 @@
       <c r="M30" s="20"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="19"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="20"/>
       <c r="D31" s="21"/>
       <c r="E31" s="20"/>
@@ -5697,21 +6088,21 @@
       <c r="M32" s="20"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="17"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="19"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="18"/>
       <c r="E34" s="17"/>
@@ -5739,7 +6130,7 @@
       <c r="M35" s="17"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="17"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="17"/>
       <c r="D36" s="18"/>
       <c r="E36" s="17"/>
@@ -5753,7 +6144,7 @@
       <c r="M36" s="17"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="19"/>
+      <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="18"/>
       <c r="E37" s="17"/>
@@ -5781,7 +6172,7 @@
       <c r="M38" s="17"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="17"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="17"/>
       <c r="D39" s="18"/>
       <c r="E39" s="17"/>
@@ -5795,7 +6186,7 @@
       <c r="M39" s="17"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="19"/>
+      <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="18"/>
       <c r="E40" s="17"/>
@@ -5823,7 +6214,7 @@
       <c r="M41" s="17"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="17"/>
+      <c r="B42" s="19"/>
       <c r="C42" s="17"/>
       <c r="D42" s="18"/>
       <c r="E42" s="17"/>
@@ -5837,7 +6228,7 @@
       <c r="M42" s="17"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="19"/>
+      <c r="B43" s="17"/>
       <c r="C43" s="17"/>
       <c r="D43" s="18"/>
       <c r="E43" s="17"/>
@@ -5865,7 +6256,7 @@
       <c r="M44" s="17"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="17"/>
+      <c r="B45" s="19"/>
       <c r="C45" s="17"/>
       <c r="D45" s="18"/>
       <c r="E45" s="17"/>
@@ -5879,7 +6270,7 @@
       <c r="M45" s="17"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="19"/>
+      <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="18"/>
       <c r="E46" s="17"/>
@@ -5907,7 +6298,7 @@
       <c r="M47" s="17"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="17"/>
+      <c r="B48" s="19"/>
       <c r="C48" s="17"/>
       <c r="D48" s="18"/>
       <c r="E48" s="17"/>
@@ -5921,7 +6312,7 @@
       <c r="M48" s="17"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="19"/>
+      <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="18"/>
       <c r="E49" s="17"/>
@@ -5949,7 +6340,7 @@
       <c r="M50" s="17"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="17"/>
+      <c r="B51" s="19"/>
       <c r="C51" s="17"/>
       <c r="D51" s="18"/>
       <c r="E51" s="17"/>
@@ -5963,7 +6354,7 @@
       <c r="M51" s="17"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B52" s="19"/>
+      <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="18"/>
       <c r="E52" s="17"/>
@@ -5991,7 +6382,7 @@
       <c r="M53" s="17"/>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B54" s="17"/>
+      <c r="B54" s="19"/>
       <c r="C54" s="17"/>
       <c r="D54" s="18"/>
       <c r="E54" s="17"/>
@@ -6005,7 +6396,7 @@
       <c r="M54" s="17"/>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B55" s="19"/>
+      <c r="B55" s="17"/>
       <c r="C55" s="17"/>
       <c r="D55" s="18"/>
       <c r="E55" s="17"/>
@@ -6033,7 +6424,7 @@
       <c r="M56" s="17"/>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B57" s="17"/>
+      <c r="B57" s="19"/>
       <c r="C57" s="17"/>
       <c r="D57" s="18"/>
       <c r="E57" s="17"/>
@@ -6047,7 +6438,7 @@
       <c r="M57" s="17"/>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B58" s="19"/>
+      <c r="B58" s="17"/>
       <c r="C58" s="17"/>
       <c r="D58" s="18"/>
       <c r="E58" s="17"/>
@@ -6075,7 +6466,7 @@
       <c r="M59" s="17"/>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B60" s="17"/>
+      <c r="B60" s="19"/>
       <c r="C60" s="17"/>
       <c r="D60" s="18"/>
       <c r="E60" s="17"/>
@@ -6089,7 +6480,7 @@
       <c r="M60" s="17"/>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B61" s="19"/>
+      <c r="B61" s="17"/>
       <c r="C61" s="17"/>
       <c r="D61" s="18"/>
       <c r="E61" s="17"/>
@@ -6117,7 +6508,7 @@
       <c r="M62" s="17"/>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B63" s="17"/>
+      <c r="B63" s="19"/>
       <c r="C63" s="17"/>
       <c r="D63" s="18"/>
       <c r="E63" s="17"/>
@@ -6131,7 +6522,7 @@
       <c r="M63" s="17"/>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B64" s="19"/>
+      <c r="B64" s="17"/>
       <c r="C64" s="17"/>
       <c r="D64" s="18"/>
       <c r="E64" s="17"/>
@@ -6159,7 +6550,7 @@
       <c r="M65" s="17"/>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B66" s="17"/>
+      <c r="B66" s="19"/>
       <c r="C66" s="17"/>
       <c r="D66" s="18"/>
       <c r="E66" s="17"/>
@@ -6173,7 +6564,7 @@
       <c r="M66" s="17"/>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B67" s="19"/>
+      <c r="B67" s="17"/>
       <c r="C67" s="17"/>
       <c r="D67" s="18"/>
       <c r="E67" s="17"/>
@@ -6201,7 +6592,7 @@
       <c r="M68" s="17"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B69" s="17"/>
+      <c r="B69" s="19"/>
       <c r="C69" s="17"/>
       <c r="D69" s="18"/>
       <c r="E69" s="17"/>
@@ -6215,7 +6606,7 @@
       <c r="M69" s="17"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B70" s="19"/>
+      <c r="B70" s="17"/>
       <c r="C70" s="17"/>
       <c r="D70" s="18"/>
       <c r="E70" s="17"/>
@@ -6243,7 +6634,7 @@
       <c r="M71" s="17"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B72" s="17"/>
+      <c r="B72" s="19"/>
       <c r="C72" s="17"/>
       <c r="D72" s="18"/>
       <c r="E72" s="17"/>
@@ -6257,7 +6648,7 @@
       <c r="M72" s="17"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B73" s="19"/>
+      <c r="B73" s="17"/>
       <c r="C73" s="17"/>
       <c r="D73" s="18"/>
       <c r="E73" s="17"/>
@@ -6285,7 +6676,7 @@
       <c r="M74" s="17"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B75" s="17"/>
+      <c r="B75" s="19"/>
       <c r="C75" s="17"/>
       <c r="D75" s="18"/>
       <c r="E75" s="17"/>
@@ -6299,7 +6690,7 @@
       <c r="M75" s="17"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B76" s="19"/>
+      <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="18"/>
       <c r="E76" s="17"/>
@@ -6327,7 +6718,7 @@
       <c r="M77" s="17"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B78" s="17"/>
+      <c r="B78" s="19"/>
       <c r="C78" s="17"/>
       <c r="D78" s="18"/>
       <c r="E78" s="17"/>
@@ -6341,7 +6732,7 @@
       <c r="M78" s="17"/>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B79" s="19"/>
+      <c r="B79" s="17"/>
       <c r="C79" s="17"/>
       <c r="D79" s="18"/>
       <c r="E79" s="17"/>
@@ -6369,7 +6760,7 @@
       <c r="M80" s="17"/>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B81" s="17"/>
+      <c r="B81" s="19"/>
       <c r="C81" s="17"/>
       <c r="D81" s="18"/>
       <c r="E81" s="17"/>
@@ -6383,7 +6774,7 @@
       <c r="M81" s="17"/>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B82" s="19"/>
+      <c r="B82" s="17"/>
       <c r="C82" s="17"/>
       <c r="D82" s="18"/>
       <c r="E82" s="17"/>
@@ -6411,7 +6802,7 @@
       <c r="M83" s="17"/>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B84" s="17"/>
+      <c r="B84" s="19"/>
       <c r="C84" s="17"/>
       <c r="D84" s="18"/>
       <c r="E84" s="17"/>
@@ -6425,7 +6816,7 @@
       <c r="M84" s="17"/>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B85" s="19"/>
+      <c r="B85" s="17"/>
       <c r="C85" s="17"/>
       <c r="D85" s="18"/>
       <c r="E85" s="17"/>
@@ -6453,7 +6844,7 @@
       <c r="M86" s="17"/>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B87" s="17"/>
+      <c r="B87" s="19"/>
       <c r="C87" s="17"/>
       <c r="D87" s="18"/>
       <c r="E87" s="17"/>
@@ -6467,7 +6858,7 @@
       <c r="M87" s="17"/>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B88" s="19"/>
+      <c r="B88" s="17"/>
       <c r="C88" s="17"/>
       <c r="D88" s="18"/>
       <c r="E88" s="17"/>
@@ -6495,7 +6886,7 @@
       <c r="M89" s="17"/>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B90" s="17"/>
+      <c r="B90" s="19"/>
       <c r="C90" s="17"/>
       <c r="D90" s="18"/>
       <c r="E90" s="17"/>
@@ -6509,7 +6900,7 @@
       <c r="M90" s="17"/>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B91" s="19"/>
+      <c r="B91" s="17"/>
       <c r="C91" s="17"/>
       <c r="D91" s="18"/>
       <c r="E91" s="17"/>
@@ -6537,7 +6928,7 @@
       <c r="M92" s="17"/>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B93" s="17"/>
+      <c r="B93" s="19"/>
       <c r="C93" s="17"/>
       <c r="D93" s="18"/>
       <c r="E93" s="17"/>
@@ -6551,7 +6942,7 @@
       <c r="M93" s="17"/>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B94" s="19"/>
+      <c r="B94" s="17"/>
       <c r="C94" s="17"/>
       <c r="D94" s="18"/>
       <c r="E94" s="17"/>
@@ -6760,23 +7151,23 @@
       <c r="L108" s="17"/>
       <c r="M108" s="17"/>
     </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B109" s="17"/>
-      <c r="C109" s="17"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="17"/>
-      <c r="F109" s="17"/>
-      <c r="G109" s="17"/>
-      <c r="H109" s="17"/>
-      <c r="I109" s="17"/>
-      <c r="J109" s="17"/>
-      <c r="K109" s="17"/>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="L3" r:id="rId2"/>
+    <hyperlink ref="L4" r:id="rId3"/>
+    <hyperlink ref="L5" r:id="rId4"/>
+    <hyperlink ref="L6" r:id="rId5"/>
+    <hyperlink ref="L7" r:id="rId6"/>
+    <hyperlink ref="L8" r:id="rId7"/>
+    <hyperlink ref="L9" r:id="rId8"/>
+    <hyperlink ref="L10" r:id="rId9"/>
+    <hyperlink ref="L11" r:id="rId10"/>
+    <hyperlink ref="L12" r:id="rId11"/>
+    <hyperlink ref="L13" r:id="rId12"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -7779,8 +8170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A28"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7842,7 +8233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -7858,9 +8249,15 @@
       <c r="E2" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>190</v>
+      </c>
       <c r="I2" s="6" t="s">
         <v>16</v>
       </c>
@@ -7870,12 +8267,14 @@
       <c r="K2" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="L2" s="6"/>
+      <c r="L2" s="26" t="s">
+        <v>232</v>
+      </c>
       <c r="M2" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -7891,9 +8290,15 @@
       <c r="E3" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="I3" s="6" t="s">
         <v>20</v>
       </c>
@@ -7903,12 +8308,14 @@
       <c r="K3" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="L3" s="6"/>
+      <c r="L3" s="26" t="s">
+        <v>233</v>
+      </c>
       <c r="M3" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -7924,9 +8331,15 @@
       <c r="E4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="I4" s="6" t="s">
         <v>20</v>
       </c>
@@ -7936,12 +8349,14 @@
       <c r="K4" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="L4" s="6"/>
+      <c r="L4" s="26" t="s">
+        <v>234</v>
+      </c>
       <c r="M4" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -7957,9 +8372,15 @@
       <c r="E5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="I5" s="6" t="s">
         <v>20</v>
       </c>
@@ -7969,12 +8390,14 @@
       <c r="K5" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="L5" s="6"/>
+      <c r="L5" s="26" t="s">
+        <v>235</v>
+      </c>
       <c r="M5" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -7990,9 +8413,15 @@
       <c r="E6" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="I6" s="6" t="s">
         <v>20</v>
       </c>
@@ -8002,7 +8431,9 @@
       <c r="K6" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="L6" s="6"/>
+      <c r="L6" s="26" t="s">
+        <v>236</v>
+      </c>
       <c r="M6" s="6" t="s">
         <v>18</v>
       </c>
@@ -8023,9 +8454,15 @@
       <c r="E7" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="I7" s="6" t="s">
         <v>20</v>
       </c>
@@ -8056,9 +8493,15 @@
       <c r="E8" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="I8" s="6" t="s">
         <v>20</v>
       </c>
@@ -8089,9 +8532,15 @@
       <c r="E9" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="I9" s="6" t="s">
         <v>20</v>
       </c>
@@ -8122,9 +8571,15 @@
       <c r="E10" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="I10" s="6" t="s">
         <v>20</v>
       </c>
@@ -8155,9 +8610,15 @@
       <c r="E11" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="I11" s="6" t="s">
         <v>20</v>
       </c>
@@ -8188,9 +8649,15 @@
       <c r="E12" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="I12" s="6" t="s">
         <v>20</v>
       </c>
@@ -8221,9 +8688,15 @@
       <c r="E13" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="I13" s="6" t="s">
         <v>20</v>
       </c>
@@ -8254,9 +8727,15 @@
       <c r="E14" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="I14" s="6" t="s">
         <v>20</v>
       </c>
@@ -9560,6 +10039,13 @@
       <c r="M87" s="17"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="L3" r:id="rId2"/>
+    <hyperlink ref="L4" r:id="rId3"/>
+    <hyperlink ref="L5" r:id="rId4"/>
+    <hyperlink ref="L6" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10692,7 +11178,7 @@
   <dimension ref="A1:M86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A28"/>
+      <selection activeCell="F2" sqref="F2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10770,9 +11256,15 @@
       <c r="E2" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>190</v>
+      </c>
       <c r="I2" s="6" t="s">
         <v>16</v>
       </c>
